--- a/docs/arch/CGL_SCHEDULE.xlsx
+++ b/docs/arch/CGL_SCHEDULE.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputeArchLab\GpuArch\CGL21080\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE8AC17-9B20-4C0D-981B-49608AA26636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBF0753-A0B6-4430-8366-C179067CCD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="17880" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schedule!$A$1:$P$34</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,16 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Task Typ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Task Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -69,14 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>WRL-95-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRL-95-9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Duration(day)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -113,30 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GPM Spec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MPC SPEC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WD(GWD) Spec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WD(CWD) SPEC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSP SPEC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3D12 study</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Compute Graphics</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,10 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MP SPEC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Compute/Graphics Execution Trace Data Structure</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,18 +153,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Standford DL/ML Class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GAMES101 Class</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Integrate NVDLA into CGL21080</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>grand</t>
   </si>
   <si>
@@ -215,10 +167,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ARCH Modeling</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ARCH Specification</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -247,26 +195,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NVDLA1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVDLA2.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVDLA3.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NVDLA Bring up</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Ray Tracing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Fused Scalar Shader ISA SPEC, Memory Model Section</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -316,32 +248,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Priority</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>R Language Study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>child</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Highest Level Analytical Energe Model (EMDL)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Priority</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>middle</t>
-  </si>
-  <si>
-    <t>R Language Study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PEND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task Hierarchy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG1 environment setup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>child</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrate matchlib int CG1</t>
+  </si>
+  <si>
+    <t>NVDLA1.0/2.0/3.0 CG2 setup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSP/MP/WD(CWD/GWD)MPC SPEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standford/Taiwan DL/ML Class</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D12 study(Ray Tracing)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPM/WD(GWD)/RT SPEC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papers Note</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +357,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +367,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,26 +392,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="25">
     <dxf>
       <font>
-        <color theme="0"/>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -492,72 +480,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9B5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <color auto="1"/>
@@ -567,60 +489,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1113,17 +981,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="1" customWidth="1"/>
@@ -1144,49 +1012,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1194,46 +1062,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2">
-        <f>SUMPRODUCT((B3:B16="parent")*1,F3:F16,G3:G16)/G2</f>
-        <v>7.6842105263157892E-2</v>
+        <f>SUMPRODUCT((B3:B12="parent")*1,F3:F12,G3:G12)/G2</f>
+        <v>0.13287671232876713</v>
       </c>
       <c r="G2" s="1">
-        <f>SUM(G3,G9,G16)</f>
-        <v>475</v>
+        <f>SUM(G3,G6:G10,G12)</f>
+        <v>365</v>
       </c>
       <c r="H2" s="1">
-        <f ca="1">IF($P$2-J2&lt;0, 0, $P$2-J2)</f>
-        <v>103</v>
+        <f t="shared" ref="H2:H10" ca="1" si="0">IF($P$2-J2&lt;0, 0, $P$2-J2)</f>
+        <v>123</v>
       </c>
       <c r="I2" s="1">
-        <f ca="1">IF(K2-$P$2&gt;0, K2-$P$2, 0)</f>
-        <v>372</v>
+        <f t="shared" ref="I2:I25" ca="1" si="1">IF(K2-$P$2&gt;0, K2-$P$2, 0)</f>
+        <v>242</v>
       </c>
       <c r="J2" s="3">
         <v>44562</v>
       </c>
       <c r="K2" s="3">
         <f>J2+G2</f>
-        <v>45037</v>
+        <v>44927</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="P2" s="3">
         <f ca="1">TODAY()</f>
-        <v>44665</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="3" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1241,103 +1109,103 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2">
-        <f>SUMPRODUCT(F4:F8,G4:G8)/G3</f>
-        <v>7.2727272727272724E-2</v>
+        <f>SUMPRODUCT(F4:F5,G4:G5)/G3</f>
+        <v>0.15</v>
       </c>
       <c r="G3" s="1">
-        <f>SUM(G4:G8)</f>
-        <v>330</v>
+        <f>SUM(G4:G5)</f>
+        <v>240</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H42" ca="1" si="0">IF($P$2-J3&lt;0, 0, $P$2-J3)</f>
-        <v>103</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>123</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I42" ca="1" si="1">IF(K3-$P$2&gt;0, K3-$P$2, 0)</f>
-        <v>227</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>117</v>
       </c>
       <c r="J3" s="3">
         <v>44562</v>
       </c>
       <c r="K3" s="3">
         <f>J3+G3</f>
-        <v>44892</v>
+        <v>44802</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="1">
         <v>120</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>44562</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K15" si="2">J4+G4</f>
+        <f t="shared" ref="K4:K11" si="2">J4+G4</f>
         <v>44682</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2">
         <v>0.1</v>
@@ -1347,11 +1215,11 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
         <f>J4</f>
@@ -1362,155 +1230,139 @@
         <v>44682</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>44685</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="3">
-        <v>44621</v>
-      </c>
       <c r="K6" s="3">
         <f t="shared" si="2"/>
-        <v>44651</v>
+        <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="1">
-        <f>A6</f>
+        <v>56</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1">
         <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>30</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <f ca="1">INDIRECT(ADDRESS($E7-1,COLUMN()+1))</f>
-        <v>44682</v>
+        <v>44593</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44712</v>
+        <f t="shared" si="2"/>
+        <v>44598</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="1">
         <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="1">
-        <f>A7</f>
-        <v>6</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>30</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>44685</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="J8" s="3">
-        <f ca="1">J7+G8</f>
-        <v>44712</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>44742</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1518,25 +1370,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="E9" s="6">
+        <v>14</v>
       </c>
       <c r="F9" s="2">
-        <f>SUMPRODUCT(F10:F15,G10:G15)/G9</f>
         <v>0.1</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(G10:G15)</f>
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <v>44685</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1544,30 +1397,30 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2">
         <v>0.1</v>
@@ -1577,7 +1430,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <v>44685</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1588,37 +1441,33 @@
         <v>20</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="1">
-        <f>A10</f>
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="1"/>
@@ -1626,177 +1475,176 @@
       </c>
       <c r="K11" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f t="shared" ref="H12:H25" ca="1" si="3">IF($P$2-J12&lt;0, 0, $P$2-J12)</f>
+        <v>44685</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="3">
-        <v>44593</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="2"/>
-        <v>44598</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2">
-        <v>0.1</v>
+        <f>SUMPRODUCT(F14:F14,G14:G14)/G13</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G13" s="1">
-        <v>20</v>
+        <f>SUM(G14:G16)</f>
+        <v>45</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
+      <c r="J13" s="3">
+        <v>44593</v>
+      </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>J13+G13</f>
+        <v>44638</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>92</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
+      <c r="J14" s="3">
+        <v>44593</v>
+      </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" ref="K14" si="4">J14+G14</f>
+        <v>44598</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F15" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" s="1" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="3" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="3" t="e">
+        <f t="shared" ref="K15:K25" si="5">J15+G15</f>
+        <v>#REF!</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1804,13 +1652,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -1818,109 +1666,110 @@
       <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H16" s="1" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="3" t="e">
+        <f>K15+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2">
-        <f>SUMPRODUCT(F18:F19,G18:G19)/G17</f>
-        <v>0.1076923076923077</v>
+        <v>0.5</v>
       </c>
       <c r="G17" s="1">
-        <f>SUM(G18:G21)</f>
-        <v>65</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="I17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="1" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>44593</v>
-      </c>
-      <c r="K17" s="3">
-        <f>J17+G17</f>
-        <v>44658</v>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="3" t="e">
+        <f>K16+1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="3" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <f>SUMPRODUCT(F19:F22,G19:G22)/G18</f>
+        <v>0.15</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <f>SUM(G19:G22)</f>
+        <v>100</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f ca="1">IF($P$2-J18&lt;0, 0, $P$2-J18)</f>
+        <v>44685</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>44593</v>
-      </c>
+        <f ca="1">IF(K18-$P$2&gt;0, K18-$P$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3"/>
       <c r="K18" s="3">
-        <f t="shared" ref="K18" si="3">J18+G18</f>
-        <v>44598</v>
+        <f>J18+G18</f>
+        <v>100</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1928,13 +1777,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F19" s="2">
         <v>0.1</v>
@@ -1943,26 +1792,26 @@
         <v>20</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <f ca="1">IF($P$2-J19&lt;0, 0, $P$2-J19)</f>
+        <v>44685</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <f>K18+1</f>
-        <v>44599</v>
-      </c>
+        <f ca="1">IF(K19-$P$2&gt;0, K19-$P$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3"/>
       <c r="K19" s="3">
-        <f t="shared" ref="K19:K25" si="4">J19+G19</f>
-        <v>44619</v>
+        <f>J19+G19</f>
+        <v>20</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1970,41 +1819,38 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G20" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <f ca="1">IF($P$2-J20&lt;0, 0, $P$2-J20)</f>
+        <v>44685</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <f>K19+1</f>
-        <v>44620</v>
-      </c>
+        <f ca="1">IF(K20-$P$2&gt;0, K20-$P$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="3">
-        <f t="shared" si="4"/>
-        <v>44640</v>
+        <f>J20+G20</f>
+        <v>40</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2012,41 +1858,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G21" s="1">
-        <v>20</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <f>K20+1</f>
-        <v>44641</v>
-      </c>
+        <f ca="1">IF(K21-$P$2&gt;0, K21-$P$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="3">
-        <f t="shared" si="4"/>
-        <v>44661</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>61</v>
+        <f>J21+G21</f>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2054,41 +1887,38 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <f ca="1">IF($P$2-J22&lt;0, 0, $P$2-J22)</f>
+        <v>44685</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="J22" s="3">
-        <f>K21+1</f>
-        <v>44662</v>
-      </c>
+        <f ca="1">IF(K22-$P$2&gt;0, K22-$P$2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3">
-        <f t="shared" si="4"/>
-        <v>44682</v>
+        <f>J22+G22</f>
+        <v>10</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2096,42 +1926,42 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2">
-        <f>SUMPRODUCT(F24:F26,G24:G26)/G25</f>
-        <v>0.55000000000000004</v>
+        <f>SUMPRODUCT(F24:F26,G24:G26)/G23</f>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G23" s="1">
         <f>SUM(G24:G26)</f>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3">
         <v>44630</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="4"/>
-        <v>44715</v>
+        <f t="shared" si="5"/>
+        <v>44700</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2139,43 +1969,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="G24" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
       </c>
       <c r="I24" s="1">
-        <f ca="1">IF(K24-$P$2&gt;0, K24-$P$2, 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>44630</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="4"/>
-        <v>44660</v>
+        <f t="shared" si="5"/>
+        <v>44675</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2183,13 +2013,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2">
         <v>0.1</v>
@@ -2198,28 +2028,28 @@
         <v>20</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
       </c>
       <c r="I25" s="1">
-        <f ca="1">IF(K25-$P$2&gt;0, K25-$P$2, 0)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J25" s="3">
         <v>44635</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44655</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2227,64 +2057,64 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1">
         <f>A24</f>
         <v>23</v>
       </c>
       <c r="F26" s="2">
-        <f>SUMPRODUCT(F27:F30,G27:G30)/G26</f>
+        <f>SUMPRODUCT(F27:F27,G27:G27)/G26</f>
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <f>SUM(G27:G30)</f>
-        <v>35</v>
+        <f>SUM(G27:G27)</f>
+        <v>5</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="H26:H33" ca="1" si="6">IF($P$2-J26&lt;0, 0, $P$2-J26)</f>
+        <v>44655</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f t="shared" ref="I26:I34" ca="1" si="7">IF(K26-$P$2&gt;0, K26-$P$2, 0)</f>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <f ca="1">INDIRECT(ADDRESS($E26-2,COLUMN()+1))</f>
-        <v>44661</v>
+        <v>30</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26:K42" ca="1" si="5">J26+G26</f>
-        <v>44696</v>
+        <f t="shared" ref="K26:K34" ca="1" si="8">J26+G26</f>
+        <v>35</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1">
         <f>A24</f>
@@ -2297,211 +2127,200 @@
         <v>5</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44655</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <f ca="1">INDIRECT(ADDRESS($E27-2,COLUMN()+1))</f>
-        <v>44661</v>
+        <v>30</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>44666</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="1">
-        <f>A27</f>
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <f>SUMPRODUCT(F29:F33,G29:G33)/G28</f>
+        <v>0.18888888888888888</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
+        <f>SUM(G29:G33)</f>
+        <v>45</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44685</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" ref="J28:J30" ca="1" si="6">INDIRECT(ADDRESS($E28-2,COLUMN()+1))</f>
-        <v>44660</v>
-      </c>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>44665</v>
+        <f t="shared" si="8"/>
+        <v>45</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="1">
-        <f>A28</f>
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44685</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>44655</v>
-      </c>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>44660</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="1">
+        <v>56</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ca="1" si="6"/>
+        <v>44685</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1">
         <f>A29</f>
         <v>28</v>
       </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="J30" s="3">
+      <c r="F31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>10</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>44696</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>44716</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="2">
-        <f>SUMPRODUCT(F32:F36,G32:G36)/G31</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="G31" s="1">
-        <f>SUM(G32:G36)</f>
-        <v>90</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <v>44685</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2509,41 +2328,41 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G32" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44685</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2551,38 +2370,45 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="E33" s="1">
+        <f>A12</f>
+        <v>11</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>44685</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2590,397 +2416,38 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F34" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>40</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>64</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="8"/>
+        <v>30</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>10</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="2">
-        <f>SUMPRODUCT(F38:F42,G38:G42)/G37</f>
-        <v>0.18888888888888888</v>
-      </c>
-      <c r="G37" s="1">
-        <f>SUM(G38:G42)</f>
-        <v>45</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>5</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>10</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="1">
-        <f>A38</f>
-        <v>37</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G40" s="1">
-        <v>10</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G41" s="1">
-        <v>10</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E42" s="1">
-        <f>A16</f>
-        <v>15</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G42" s="1">
-        <v>10</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44665</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B20:G20 I20:N20 A2:N10 B21:N42 A11:A42 A43:C61 E43:N61 O2:O61 B11:N19 D2:D61">
-    <cfRule type="expression" dxfId="35" priority="13">
+  <conditionalFormatting sqref="I15:N15 A35:C52 E34:N52 B34:C34 D15:G15 A2:N5 B6:N14 F3:F14 D16:N17 B15:C17 B18:N33 O2:O52 D2:D52 A6:A34">
+    <cfRule type="expression" dxfId="24" priority="13">
       <formula>$B2="grand"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2998,13 +2465,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52:A53 C6:D7 D34:O35 D40:D41">
-    <cfRule type="expression" dxfId="34" priority="24">
-      <formula>$B7="parent"</formula>
+  <conditionalFormatting sqref="A43:A44 D31:D32">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>$B32="parent"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:O36 D42">
-    <cfRule type="expression" dxfId="33" priority="29">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>#REF!="parent"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3022,56 +2489,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F16">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF3849D6-13B1-4A85-B874-011A87FA844F}</x14:id>
-        </ext>
-      </extLst>
+  <conditionalFormatting sqref="D6:D9">
+    <cfRule type="expression" dxfId="21" priority="37">
+      <formula>$B14="parent"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D15">
-    <cfRule type="expression" dxfId="32" priority="37">
-      <formula>$B19="parent"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8:D8 C16:D16">
-    <cfRule type="expression" dxfId="31" priority="48">
+  <conditionalFormatting sqref="C12:D12">
+    <cfRule type="expression" dxfId="20" priority="48">
       <formula>#REF!="parent"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F34">
-    <cfRule type="dataBar" priority="72">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20B9EACA-6917-432A-9A8F-6A215A374947}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F41">
-    <cfRule type="dataBar" priority="81">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{085A8A61-6833-40B7-A78D-1F6CE9AC9DCC}</x14:id>
-        </ext>
-      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
@@ -3088,40 +2513,80 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:G20 I20:N20 B21:N42 B43:C61 E43:N61 O2:O61 B2:N19 D2:D61">
-    <cfRule type="expression" dxfId="30" priority="15">
+  <conditionalFormatting sqref="I15:N15 B34:C52 E34:N52 D15:G15 B2:N14 D16:N17 B15:C17 B18:N33 D7:D52 O2:O52">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$B2="parent"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$B2="child"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N61 D43:D61">
-    <cfRule type="expression" dxfId="28" priority="10">
+  <conditionalFormatting sqref="D34:D52 N2:N52">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>$N2="PEND"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>$N2="STALL"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>$N2="ACTIVE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I61">
-    <cfRule type="expression" dxfId="25" priority="7">
+  <conditionalFormatting sqref="I2:I52">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>AND((($H2/$G2)&lt;$F2),($N2="ACTIVE"))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>AND(($H2/$G2)&gt;$F2,$N2="ACTIVE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:D11 D10:D16">
-    <cfRule type="expression" dxfId="23" priority="82">
-      <formula>$B17="parent"</formula>
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="expression" dxfId="12" priority="82">
+      <formula>$B14="parent"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>$B35="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="10" priority="4">
+      <formula>$B35="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>$B35="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$B35="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D51">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$D2="high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7">
+    <cfRule type="expression" dxfId="6" priority="182">
+      <formula>#REF!="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:D10">
+    <cfRule type="expression" dxfId="5" priority="183">
+      <formula>$B15="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:O20">
+    <cfRule type="expression" dxfId="4" priority="216">
+      <formula>$B22="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F12">
+    <cfRule type="dataBar" priority="287">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3129,53 +2594,76 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BC8D6846-FD41-491F-8BA7-9D9004A458C6}</x14:id>
+          <x14:id>{AF3849D6-13B1-4A85-B874-011A87FA844F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="22" priority="5">
-      <formula>$B44="parent"</formula>
+  <conditionalFormatting sqref="D22:O22">
+    <cfRule type="expression" dxfId="3" priority="376">
+      <formula>#REF!="parent"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="21" priority="4">
-      <formula>$B44="parent"</formula>
+  <conditionalFormatting sqref="D21:O21">
+    <cfRule type="expression" dxfId="2" priority="405">
+      <formula>#REF!="parent"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="20" priority="3">
-      <formula>$B44="parent"</formula>
+  <conditionalFormatting sqref="F2:F32">
+    <cfRule type="dataBar" priority="406">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{085A8A61-6833-40B7-A78D-1F6CE9AC9DCC}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>$B44="parent"</formula>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="expression" dxfId="1" priority="410">
+      <formula>$B23="parent"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D60">
-    <cfRule type="expression" dxfId="18" priority="1">
-      <formula>$D2="high"</formula>
+  <conditionalFormatting sqref="C11 D11:D12">
+    <cfRule type="expression" dxfId="0" priority="412">
+      <formula>$B23="parent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F27 F3:F21">
+    <cfRule type="dataBar" priority="454">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{20B9EACA-6917-432A-9A8F-6A215A374947}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F38:F1048576 F18:F30 F32:F36 F11" xr:uid="{06375267-482D-4269-8D7D-12D415F2FA7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F29:F1048576 F4:F12 F24:F27 F14:F22" xr:uid="{06375267-482D-4269-8D7D-12D415F2FA7C}">
       <formula1>"0%,10%,20%,30%,40%,50%,60%,70%,80%,90%,100%"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B43:B1048576" xr:uid="{AD491D23-D71F-4E78-8BD5-76D3787FDDF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B1048576" xr:uid="{AD491D23-D71F-4E78-8BD5-76D3787FDDF7}">
       <formula1>"grandparent,parent,child"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B42" xr:uid="{8AB5A1F5-5ACD-46D9-9F9B-5A87BA57F940}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35:D1048576 N1:N1048576" xr:uid="{72156543-0BFE-43CE-BE16-562CFA4C8735}">
+      <formula1>"ACTIVE,STALL,PEND"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{8AB5A1F5-5ACD-46D9-9F9B-5A87BA57F940}">
       <formula1>"grand,parent,child"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576 D44:D1048576" xr:uid="{72156543-0BFE-43CE-BE16-562CFA4C8735}">
-      <formula1>"ACTIVE,STALL,PEND"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{2BBC3252-AA16-492B-ABA3-D6FD69BA4390}">
       <formula1>"Gene,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D42 D43" xr:uid="{33B0966C-8237-4B82-990A-1D5FE4D1124C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D34" xr:uid="{33B0966C-8237-4B82-990A-1D5FE4D1124C}">
       <formula1>"high,middle,low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3207,39 +2695,6 @@
           <xm:sqref>F2:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF3849D6-13B1-4A85-B874-011A87FA844F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F4:F16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20B9EACA-6917-432A-9A8F-6A215A374947}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F17:F34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{085A8A61-6833-40B7-A78D-1F6CE9AC9DCC}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F2:F41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6C8F467E-9975-480E-8F40-2D1995D76A3E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
@@ -3251,7 +2706,7 @@
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BC8D6846-FD41-491F-8BA7-9D9004A458C6}">
+          <x14:cfRule type="dataBar" id="{AF3849D6-13B1-4A85-B874-011A87FA844F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3259,7 +2714,29 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F11</xm:sqref>
+          <xm:sqref>F4:F12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{085A8A61-6833-40B7-A78D-1F6CE9AC9DCC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{20B9EACA-6917-432A-9A8F-6A215A374947}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F23:F27 F3:F21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
